--- a/config_hlw/systaskmanagement_config.xlsx
+++ b/config_hlw/systaskmanagement_config.xlsx
@@ -73,29 +73,26 @@
     <t>福卡场每月</t>
   </si>
   <si>
-    <t>sys_task_management_type_1_config,panel1</t>
+    <t>rw_bg_img02_2</t>
+  </si>
+  <si>
+    <t>rw_bg_img02_3</t>
+  </si>
+  <si>
+    <t>rw_bg_img02_4</t>
+  </si>
+  <si>
+    <t>"sys_task_management_type_1_config","panel1"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sys_task_management_type_1_config,panel2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_task_management_type_1_config,panel3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_task_management_type_1_config,panel4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_bg_img02_2</t>
-  </si>
-  <si>
-    <t>rw_bg_img02_3</t>
-  </si>
-  <si>
-    <t>rw_bg_img02_4</t>
+    <t>"sys_task_management_type_1_config","panel2"</t>
+  </si>
+  <si>
+    <t>"sys_task_management_type_1_config","panel3"</t>
+  </si>
+  <si>
+    <t>"sys_task_management_type_1_config","panel4"</t>
   </si>
 </sst>
 </file>
@@ -1216,14 +1213,14 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
@@ -1274,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1305,10 +1302,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1339,10 +1336,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1373,10 +1370,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>

--- a/config_hlw/systaskmanagement_config.xlsx
+++ b/config_hlw/systaskmanagement_config.xlsx
@@ -82,17 +82,17 @@
     <t>rw_bg_img02_4</t>
   </si>
   <si>
-    <t>"sys_task_management_type_1_config","panel1"</t>
+    <t>"sys_task_management_type_1","panel1"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_task_management_type_1_config","panel2"</t>
-  </si>
-  <si>
-    <t>"sys_task_management_type_1_config","panel3"</t>
-  </si>
-  <si>
-    <t>"sys_task_management_type_1_config","panel4"</t>
+    <t>"sys_task_management_type_1","panel2"</t>
+  </si>
+  <si>
+    <t>"sys_task_management_type_1","panel3"</t>
+  </si>
+  <si>
+    <t>"sys_task_management_type_1","panel4"</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_hlw/systaskmanagement_config.xlsx
+++ b/config_hlw/systaskmanagement_config.xlsx
@@ -61,9 +61,6 @@
     <t>金币场每日</t>
   </si>
   <si>
-    <t>rw_bg_img02_1</t>
-  </si>
-  <si>
     <t>金币场每月</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
   </si>
   <si>
     <t>福卡场每月</t>
-  </si>
-  <si>
-    <t>rw_bg_img02_2</t>
-  </si>
-  <si>
-    <t>rw_bg_img02_3</t>
-  </si>
-  <si>
-    <t>rw_bg_img02_4</t>
   </si>
   <si>
     <t>"sys_task_management_type_1","panel1"</t>
@@ -93,6 +81,48 @@
   </si>
   <si>
     <t>"sys_task_management_type_1","panel4"</t>
+  </si>
+  <si>
+    <r>
+      <t>rw_bg_img02_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rw_bg_img02_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_bg_img02_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_bg_img02_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1267,11 +1297,11 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1299,13 +1329,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1333,13 +1363,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1367,13 +1397,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>

--- a/config_hlw/systaskmanagement_config.xlsx
+++ b/config_hlw/systaskmanagement_config.xlsx
@@ -83,25 +83,16 @@
     <t>"sys_task_management_type_1","panel4"</t>
   </si>
   <si>
+    <t>rw_bg_img05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_bg_img02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>rw_bg_img02_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>rw_bg_img02_</t>
+      <t>rw_bg_img0</t>
     </r>
     <r>
       <rPr>
@@ -117,11 +108,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rw_bg_img02_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_bg_img02_5</t>
+    <r>
+      <t>rw_bg_img0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1298,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1400,7 +1400,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
